--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionSpreadsVolsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionSpreadsVolsQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
     <sheet name="SwaptionsSpreadsVol" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$10</definedName>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>Currency</t>
   </si>
@@ -120,6 +117,9 @@
   <si>
     <t>2Y</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +129,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -630,22 +630,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,7 +926,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
@@ -952,14 +936,14 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1"/>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" ht="15.75">
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
@@ -967,13 +951,13 @@
       <c r="D3" s="45"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:33" s="1" customFormat="1">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1">
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
         <v>12</v>
@@ -981,7 +965,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:33" s="1" customFormat="1">
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
         <v>11</v>
@@ -991,7 +975,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:33" s="1" customFormat="1">
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
         <v>14</v>
@@ -1001,7 +985,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
         <v>15</v>
@@ -1011,18 +995,17 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:33" s="1" customFormat="1">
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:33" s="1" customFormat="1">
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
         <v>17</v>
@@ -1032,14 +1015,14 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="11" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="13" spans="1:33" s="1" customFormat="1" ht="15.75">
+    <row r="12" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:33" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
         <v>19</v>
       </c>
@@ -1047,13 +1030,13 @@
       <c r="D13" s="45"/>
       <c r="E13" s="46"/>
     </row>
-    <row r="14" spans="1:33" s="1" customFormat="1">
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:33" customFormat="1">
+    <row r="15" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13"/>
       <c r="C15" s="9" t="s">
@@ -1092,7 +1075,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" customFormat="1">
+    <row r="16" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13"/>
       <c r="C16" s="9" t="s">
@@ -1131,7 +1114,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" customFormat="1">
+    <row r="17" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13"/>
       <c r="C17" s="9" t="s">
@@ -1170,124 +1153,124 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1"/>
-    <row r="20" spans="1:33" s="1" customFormat="1"/>
-    <row r="21" spans="1:33" s="1" customFormat="1"/>
-    <row r="22" spans="1:33" s="1" customFormat="1"/>
-    <row r="23" spans="1:33" s="1" customFormat="1"/>
-    <row r="24" spans="1:33" s="1" customFormat="1"/>
-    <row r="25" spans="1:33" s="1" customFormat="1"/>
-    <row r="26" spans="1:33" s="1" customFormat="1"/>
-    <row r="27" spans="1:33" s="1" customFormat="1"/>
-    <row r="28" spans="1:33" s="1" customFormat="1"/>
-    <row r="29" spans="1:33" s="1" customFormat="1"/>
-    <row r="30" spans="1:33" s="1" customFormat="1"/>
-    <row r="31" spans="1:33" s="1" customFormat="1"/>
-    <row r="32" spans="1:33" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="88" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="1" customFormat="1"/>
-    <row r="122" s="1" customFormat="1"/>
-    <row r="123" s="1" customFormat="1"/>
-    <row r="124" s="1" customFormat="1"/>
-    <row r="125" s="1" customFormat="1"/>
-    <row r="126" s="1" customFormat="1"/>
-    <row r="127" s="1" customFormat="1"/>
-    <row r="128" s="1" customFormat="1"/>
-    <row r="129" s="1" customFormat="1"/>
-    <row r="130" s="1" customFormat="1"/>
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
@@ -1314,7 +1297,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="20" customWidth="1"/>
@@ -1328,7 +1311,7 @@
     <col min="13" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" s="19"/>
       <c r="D1" s="43" t="s">
         <v>18</v>
@@ -1337,24 +1320,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" s="22" t="str">
         <f>Currency&amp;"_010_SwaptionSpreadsVolsQuotes.xml"</f>
         <v>EUR_010_SwaptionSpreadsVolsQuotes.xml</v>
       </c>
-      <c r="E2" s="23" t="e">
+      <c r="E2" s="23">
         <f>IF(Serialize,_xll.ohObjectSave(D5:L34,SerializationPath&amp;D2,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
         <v>2</v>
@@ -1384,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1415,7 @@
         <v>EUR_3Mx2Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1463,7 @@
         <v>EUR_3Mx5Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +1511,7 @@
         <v>EUR_3Mx10Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -1576,7 +1559,7 @@
         <v>EUR_3Mx20Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1607,7 @@
         <v>EUR_3Mx30Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1655,7 @@
         <v>EUR_1Yx2Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1703,7 @@
         <v>EUR_1Yx5Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1751,7 @@
         <v>EUR_1Yx10Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1799,7 @@
         <v>EUR_1Yx20Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1847,7 @@
         <v>EUR_1Yx30Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
@@ -1912,7 +1895,7 @@
         <v>EUR_5Yx2Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1943,7 @@
         <v>EUR_5Yx5Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +1991,7 @@
         <v>EUR_5Yx10Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
@@ -2056,7 +2039,7 @@
         <v>EUR_5Yx20Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2087,7 @@
         <v>EUR_5Yx30Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>26</v>
       </c>
@@ -2152,7 +2135,7 @@
         <v>EUR_10Yx2Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -2200,7 +2183,7 @@
         <v>EUR_10Yx5Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
@@ -2248,7 +2231,7 @@
         <v>EUR_10Yx10Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>26</v>
       </c>
@@ -2296,7 +2279,7 @@
         <v>EUR_10Yx20Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
@@ -2344,7 +2327,7 @@
         <v>EUR_10Yx30Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>27</v>
       </c>
@@ -2392,7 +2375,7 @@
         <v>EUR_20Yx2Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +2423,7 @@
         <v>EUR_20Yx5Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -2488,7 +2471,7 @@
         <v>EUR_20Yx10Y_200bp_Quote#0001</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
@@ -2536,7 +2519,7 @@
         <v>EUR_20Yx20Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>27</v>
       </c>
@@ -2584,7 +2567,7 @@
         <v>EUR_20Yx30Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>28</v>
       </c>
@@ -2632,7 +2615,7 @@
         <v>EUR_30Yx2Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
@@ -2680,7 +2663,7 @@
         <v>EUR_30Yx5Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
@@ -2728,7 +2711,7 @@
         <v>EUR_30Yx10Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>28</v>
       </c>
@@ -2776,7 +2759,7 @@
         <v>EUR_30Yx20Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>28</v>
       </c>
@@ -2824,7 +2807,7 @@
         <v>EUR_30Yx30Y_200bp_Quote#0000</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C35" s="35" t="str">
         <f>C5</f>
         <v>3Mx2Y</v>
@@ -2866,7 +2849,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C36" s="36" t="str">
         <f t="shared" ref="C36:C64" si="1">C6</f>
         <v>3Mx5Y</v>
@@ -2908,7 +2891,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C37" s="36" t="str">
         <f t="shared" si="1"/>
         <v>3Mx10Y</v>
@@ -2950,7 +2933,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C38" s="36" t="str">
         <f t="shared" si="1"/>
         <v>3Mx20Y</v>
@@ -2992,7 +2975,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C39" s="36" t="str">
         <f t="shared" si="1"/>
         <v>3Mx30Y</v>
@@ -3034,7 +3017,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C40" s="36" t="str">
         <f t="shared" si="1"/>
         <v>1Yx2Y</v>
@@ -3076,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C41" s="36" t="str">
         <f t="shared" si="1"/>
         <v>1Yx5Y</v>
@@ -3118,7 +3101,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C42" s="36" t="str">
         <f t="shared" si="1"/>
         <v>1Yx10Y</v>
@@ -3160,7 +3143,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C43" s="36" t="str">
         <f t="shared" si="1"/>
         <v>1Yx20Y</v>
@@ -3202,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44" s="36" t="str">
         <f t="shared" si="1"/>
         <v>1Yx30Y</v>
@@ -3244,7 +3227,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C45" s="36" t="str">
         <f t="shared" si="1"/>
         <v>5Yx2Y</v>
@@ -3286,7 +3269,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C46" s="36" t="str">
         <f t="shared" si="1"/>
         <v>5Yx5Y</v>
@@ -3328,7 +3311,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C47" s="36" t="str">
         <f t="shared" si="1"/>
         <v>5Yx10Y</v>
@@ -3370,7 +3353,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C48" s="36" t="str">
         <f t="shared" si="1"/>
         <v>5Yx20Y</v>
@@ -3412,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="36" t="str">
         <f t="shared" si="1"/>
         <v>5Yx30Y</v>
@@ -3454,7 +3437,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="36" t="str">
         <f t="shared" si="1"/>
         <v>10Yx2Y</v>
@@ -3496,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="36" t="str">
         <f t="shared" si="1"/>
         <v>10Yx5Y</v>
@@ -3538,7 +3521,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="36" t="str">
         <f t="shared" si="1"/>
         <v>10Yx10Y</v>
@@ -3580,7 +3563,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="36" t="str">
         <f t="shared" si="1"/>
         <v>10Yx20Y</v>
@@ -3622,7 +3605,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="36" t="str">
         <f t="shared" si="1"/>
         <v>10Yx30Y</v>
@@ -3664,7 +3647,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="36" t="str">
         <f t="shared" si="1"/>
         <v>20Yx2Y</v>
@@ -3706,7 +3689,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="36" t="str">
         <f t="shared" si="1"/>
         <v>20Yx5Y</v>
@@ -3748,7 +3731,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="36" t="str">
         <f t="shared" si="1"/>
         <v>20Yx10Y</v>
@@ -3790,7 +3773,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="36" t="str">
         <f t="shared" si="1"/>
         <v>20Yx20Y</v>
@@ -3832,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="36" t="str">
         <f t="shared" si="1"/>
         <v>20Yx30Y</v>
@@ -3874,7 +3857,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="36" t="str">
         <f t="shared" si="1"/>
         <v>30Yx2Y</v>
@@ -3916,7 +3899,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="36" t="str">
         <f t="shared" si="1"/>
         <v>30Yx5Y</v>
@@ -3958,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="36" t="str">
         <f t="shared" si="1"/>
         <v>30Yx10Y</v>
@@ -4000,7 +3983,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="36" t="str">
         <f t="shared" si="1"/>
         <v>30Yx20Y</v>
@@ -4042,7 +4025,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="37" t="str">
         <f t="shared" si="1"/>
         <v>30Yx30Y</v>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionSpreadsVolsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionSpreadsVolsQuotes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Currency</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>2Y</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +997,9 @@
       <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
+      <c r="D9" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -1325,9 +1323,9 @@
         <f>Currency&amp;"_010_SwaptionSpreadsVolsQuotes.xml"</f>
         <v>EUR_010_SwaptionSpreadsVolsQuotes.xml</v>
       </c>
-      <c r="E2" s="23">
-        <f>IF(Serialize,_xll.ohObjectSave(D5:L34,SerializationPath&amp;D2,FileOverwrite,Serialize),"--")</f>
-        <v>270</v>
+      <c r="E2" s="23" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D5:L34,SerializationPath&amp;D2,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
